--- a/diccionarios.xlsx
+++ b/diccionarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\UNIR\Maestria Analisis e Interpretacion de Datos\Semestre III\ProyectoFinal\Data\ENEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDDFCA-6A62-4753-A089-6A2C0F8D54BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F1F9C-61BE-4C1F-9EBD-CF04BB7082B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A1409983-E770-4C68-AC3C-3FA8D9011C03}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="100">
   <si>
     <t>Descripción</t>
   </si>
@@ -225,43 +225,28 @@
     <t>FORMULARIO</t>
   </si>
   <si>
-    <t>HOGAR (EN HOGAR)</t>
-  </si>
-  <si>
     <t>PO3A05A</t>
   </si>
   <si>
-    <t>*Asumir que es igual que 2010 debido a falta de información en diccionario</t>
-  </si>
-  <si>
     <t>NUM_HOG</t>
   </si>
   <si>
     <t>CP</t>
   </si>
   <si>
-    <t>PER_HOGAR (EN HOGAR)</t>
-  </si>
-  <si>
     <t>P03A03</t>
   </si>
   <si>
     <t>P05A14B</t>
   </si>
   <si>
-    <t>*Asumir que es igual que 2013 debido a falta de información en diccionario</t>
-  </si>
-  <si>
     <t>NUMHOG</t>
   </si>
   <si>
-    <t>PPB04 (EN HOGAR)</t>
-  </si>
-  <si>
     <t>HOGAR_NUM</t>
   </si>
   <si>
-    <t>P01B04 (EN HOGAR)</t>
+    <t>P01B04</t>
   </si>
   <si>
     <t>P04A05A</t>
@@ -343,6 +328,12 @@
   </si>
   <si>
     <t>DONACIONES</t>
+  </si>
+  <si>
+    <t>PPB04</t>
+  </si>
+  <si>
+    <t>PER_HOGAR</t>
   </si>
 </sst>
 </file>
@@ -467,9 +458,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -876,24 +867,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2211730C-B87C-4BCD-868D-4405C3D2B766}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
@@ -904,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2">
         <v>2002</v>
@@ -974,34 +965,34 @@
       <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1010,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1027,35 +1018,35 @@
       <c r="G3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="H3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>74</v>
+      <c r="Q3" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1063,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1078,33 +1069,33 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1113,7 +1104,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1124,39 +1115,41 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="41" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1181,35 +1174,35 @@
       <c r="G6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="30" t="s">
-        <v>69</v>
+      <c r="Q6" s="29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1217,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1232,37 +1225,37 @@
         <v>49</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>49</v>
       </c>
       <c r="K7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="31" t="s">
-        <v>76</v>
+      <c r="Q7" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,7 +1263,7 @@
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1287,35 +1280,35 @@
       <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="32" t="s">
-        <v>77</v>
+      <c r="Q8" s="31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1340,35 +1333,35 @@
       <c r="G9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="34" t="s">
-        <v>80</v>
+      <c r="Q9" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1393,35 +1386,35 @@
       <c r="G10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="33" t="s">
-        <v>78</v>
+      <c r="Q10" s="32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -1446,35 +1439,35 @@
       <c r="G11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="33" t="s">
-        <v>79</v>
+      <c r="Q11" s="32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -1499,35 +1492,35 @@
       <c r="G12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="35" t="s">
-        <v>81</v>
+      <c r="Q12" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1535,7 +1528,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
@@ -1552,35 +1545,35 @@
       <c r="G13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="36" t="s">
-        <v>82</v>
+      <c r="Q13" s="35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1605,35 +1598,35 @@
       <c r="G14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="37" t="s">
-        <v>83</v>
+      <c r="Q14" s="36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -1658,35 +1651,35 @@
       <c r="G15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="38" t="s">
-        <v>84</v>
+      <c r="Q15" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1694,7 +1687,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -1711,35 +1704,35 @@
       <c r="G16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="39" t="s">
-        <v>85</v>
+      <c r="Q16" s="38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1747,7 +1740,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>35</v>
@@ -1764,35 +1757,35 @@
       <c r="G17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="40" t="s">
-        <v>86</v>
+      <c r="Q17" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1800,7 +1793,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
@@ -1817,43 +1810,35 @@
       <c r="G18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q18" s="41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>71</v>
+      <c r="H18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/diccionarios.xlsx
+++ b/diccionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\UNIR\Maestria Analisis e Interpretacion de Datos\Semestre III\ProyectoFinal\Data\ENEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F1F9C-61BE-4C1F-9EBD-CF04BB7082B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE998C6-B33E-4DFD-B6DB-A7A280204D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A1409983-E770-4C68-AC3C-3FA8D9011C03}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="104">
   <si>
     <t>Descripción</t>
   </si>
@@ -129,9 +129,6 @@
     <t>AYUDAS EN DINERO</t>
   </si>
   <si>
-    <t>REMESAS</t>
-  </si>
-  <si>
     <t>P10A04B</t>
   </si>
   <si>
@@ -240,6 +237,12 @@
     <t>P05A14B</t>
   </si>
   <si>
+    <t>P05A17B</t>
+  </si>
+  <si>
+    <t>P05A19B</t>
+  </si>
+  <si>
     <t>NUMHOG</t>
   </si>
   <si>
@@ -273,9 +276,6 @@
     <t>P06A03B</t>
   </si>
   <si>
-    <t>(P06C02B + P06C03B + P06C04B)/3</t>
-  </si>
-  <si>
     <t>P06A02B</t>
   </si>
   <si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>PER_HOGAR</t>
+  </si>
+  <si>
+    <t>REMESAS1</t>
+  </si>
+  <si>
+    <t>REMESAS2</t>
+  </si>
+  <si>
+    <t>REMESAS3</t>
+  </si>
+  <si>
+    <t>P05A18B</t>
   </si>
 </sst>
 </file>
@@ -543,9 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -867,27 +877,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2211730C-B87C-4BCD-868D-4405C3D2B766}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1013,40 +1024,40 @@
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1069,13 +1080,13 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -1149,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1169,10 +1180,10 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>11</v>
@@ -1202,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1222,45 +1233,45 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>88</v>
@@ -1308,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,40 +1339,40 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,43 +1389,43 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1434,40 +1445,40 @@
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1484,43 +1495,43 @@
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1537,43 +1548,43 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,254 +1601,340 @@
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>55</v>
+        <v>101</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>55</v>
+        <v>103</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>57</v>
+        <v>102</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" s="40" t="s">
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="39" t="s">
         <v>82</v>
       </c>
     </row>
